--- a/data/trans_camb/IP16B98-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B98-Edad-trans_camb.xlsx
@@ -642,7 +642,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,15</t>
+          <t>9,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>6,22</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,81</t>
+          <t>0,0; 38,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,59</t>
+          <t>0,0; 25,66</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>6,63%</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 137,12</t>
+          <t>0,0; 62,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -731,14 +731,14 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,94</t>
+          <t>0,0; 34,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>14,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,22</t>
+          <t>8,43</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,51</t>
+          <t>0,0; 57,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,66</t>
+          <t>0,0; 39,59</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>9,21%</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,63</t>
+          <t>0,0; 137,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,52</t>
+          <t>0,0; 65,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B98-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B98-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-37,69</t>
+          <t>-56,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,43</t>
+          <t>-23,05</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-86,32; 0,0</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 39,02</t>
+          <t>-39,67; 23,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 7,49</t>
+          <t>-54,37; 3,39</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-37,69%</t>
+          <t>-56,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>-1,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,13%</t>
+          <t>-24,63%</t>
         </is>
       </c>
     </row>
@@ -625,24 +625,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-86,32; 0,0</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 66,06</t>
+          <t>-40,3; 31,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 8,25</t>
+          <t>-56,83; 4,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>8,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,22</t>
+          <t>10,17</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,51</t>
+          <t>0,0; 39,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 60,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,66</t>
+          <t>0,0; 31,07</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>11,32%</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,63</t>
+          <t>0,0; 66,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 159,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,52</t>
+          <t>0,0; 45,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,15</t>
+          <t>20,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>10,65</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,81</t>
+          <t>0,0; 78,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,59</t>
+          <t>0,0; 39,09</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>11,92%</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 137,12</t>
+          <t>0,0; 368,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -827,14 +827,14 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,94</t>
+          <t>0,0; 64,16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 16,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 19,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 12,75</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 19,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 25,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 15,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4,64</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-11,06; 15,58</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 18,28</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 14,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>5,0%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-11,41; 19,72</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 22,51</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-4,79; 17,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP16B98-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B98-Edad-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
     </row>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-39,67; 23,95</t>
+          <t>-41,58; 23,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-54,37; 3,39</t>
+          <t>-58,35; 1,92</t>
         </is>
       </c>
     </row>
@@ -630,12 +630,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,3; 31,92</t>
+          <t>-46,55; 30,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,83; 4,34</t>
+          <t>-58,92; 1,96</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,55</t>
+          <t>0,0; 46,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,42</t>
+          <t>0,0; 69,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,07</t>
+          <t>0,0; 30,92</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,04</t>
+          <t>0,0; 88,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 159,79</t>
+          <t>0,0; 226,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,06</t>
+          <t>0,0; 44,73</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,65</t>
+          <t>0,0; 80,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,09</t>
+          <t>0,0; 46,3</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 368,25</t>
+          <t>0,0; 421,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,16</t>
+          <t>0,0; 86,22</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 15,58</t>
+          <t>-12,58; 16,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 18,28</t>
+          <t>-4,0; 19,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 14,44</t>
+          <t>-5,09; 12,99</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 19,72</t>
+          <t>-12,59; 20,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 22,51</t>
+          <t>-4,13; 25,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 17,22</t>
+          <t>-5,18; 15,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B98-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B98-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>-56,09</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-38,75; 24,16</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>-100,0; 0,0</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-41,58; 23,23</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-58,35; 1,92</t>
+          <t>-56,71; 6,41</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-1,45%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>-56,09%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-39,49; 33,35</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>-100,0; 0,0</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-46,55; 30,89</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,92; 1,96</t>
+          <t>-57,19; 6,85</t>
         </is>
       </c>
     </row>
@@ -652,12 +652,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>12,6</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>8,71</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,82</t>
+          <t>0,0; 68,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,33</t>
+          <t>0,0; 36,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,92</t>
+          <t>0,0; 31,81</t>
         </is>
       </c>
     </row>
@@ -698,12 +698,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>14,42%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>9,54%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>14,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 88,79</t>
+          <t>0,0; 217,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 226,09</t>
+          <t>0,0; 56,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,73</t>
+          <t>0,0; 46,64</t>
         </is>
       </c>
     </row>
@@ -748,12 +748,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>20,22</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 77,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,3</t>
+          <t>0,0; 46,12</t>
         </is>
       </c>
     </row>
@@ -794,12 +794,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>25,35%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 421,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 344,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 86,22</t>
+          <t>0,0; 85,61</t>
         </is>
       </c>
     </row>
@@ -940,12 +940,12 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>4,64</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>1,17</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>4,64</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 16,46</t>
+          <t>-2,66; 19,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 19,92</t>
+          <t>-10,49; 16,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 12,99</t>
+          <t>-6,09; 12,75</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>5,0%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
           <t>1,27%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>5,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 20,16</t>
+          <t>-2,66; 25,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 25,71</t>
+          <t>-11,23; 19,74</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 15,73</t>
+          <t>-6,02; 15,21</t>
         </is>
       </c>
     </row>
